--- a/doors-detector/results/house15_door_no_door.xlsx
+++ b/doors-detector/results/house15_door_no_door.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7831580518484923</v>
+        <v>0.8029711677477683</v>
       </c>
       <c r="F2" t="n">
         <v>4230</v>
       </c>
       <c r="G2" t="n">
-        <v>3561</v>
+        <v>3614</v>
       </c>
       <c r="H2" t="n">
-        <v>669</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.5779067560604021</v>
+        <v>0.5613202567103113</v>
       </c>
       <c r="F3" t="n">
         <v>293</v>
       </c>
       <c r="G3" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H3" t="n">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.772848530294409</v>
+        <v>0.7926906660118029</v>
       </c>
       <c r="F4" t="n">
         <v>4230</v>
       </c>
       <c r="G4" t="n">
-        <v>3513</v>
+        <v>3562</v>
       </c>
       <c r="H4" t="n">
-        <v>717</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6505423795815471</v>
+        <v>0.6844091860690469</v>
       </c>
       <c r="F5" t="n">
         <v>293</v>
       </c>
       <c r="G5" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H5" t="n">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7865764885460208</v>
+        <v>0.8146608796277569</v>
       </c>
       <c r="F6" t="n">
         <v>4230</v>
       </c>
       <c r="G6" t="n">
-        <v>3561</v>
+        <v>3634</v>
       </c>
       <c r="H6" t="n">
-        <v>669</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6631268677722276</v>
+        <v>0.6935734449695251</v>
       </c>
       <c r="F7" t="n">
         <v>293</v>
       </c>
       <c r="G7" t="n">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="H7" t="n">
-        <v>329</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7951506194783076</v>
+        <v>0.816259750896724</v>
       </c>
       <c r="F8" t="n">
         <v>4230</v>
       </c>
       <c r="G8" t="n">
-        <v>3571</v>
+        <v>3621</v>
       </c>
       <c r="H8" t="n">
-        <v>659</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6993532157824457</v>
+        <v>0.7034604207928312</v>
       </c>
       <c r="F9" t="n">
         <v>293</v>
       </c>
       <c r="G9" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H9" t="n">
-        <v>364</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
